--- a/Cambios y Pruebas Hechas.xlsx
+++ b/Cambios y Pruebas Hechas.xlsx
@@ -19,36 +19,9 @@
     <t>Cambios</t>
   </si>
   <si>
-    <t>Cambio hecho en la tabla Complejo: ID autonumerico</t>
-  </si>
-  <si>
-    <t>Cambio hecho en la tabla Propietario: ID autonumerico</t>
-  </si>
-  <si>
-    <t>Cambio hecho en la tabla Presiones: ID autonumerico</t>
-  </si>
-  <si>
-    <t>Cambio hecho en la tabla Fauna: ID autonumerico</t>
-  </si>
-  <si>
-    <t>Cambio hecho en la tabla Fotografica: ID autonumerico</t>
-  </si>
-  <si>
-    <t>Cambio hecho en la tabla Imagen: ID autonumerico</t>
-  </si>
-  <si>
-    <t>Cambio hecho en la tabla Flora: ID autonumerico</t>
-  </si>
-  <si>
-    <t>Cambio hecho en la tabla Cuenca: ID autonumerico</t>
-  </si>
-  <si>
     <t>Pruebas</t>
   </si>
   <si>
-    <t>Carga de cuenca funciona</t>
-  </si>
-  <si>
     <t>Carga de complejo</t>
   </si>
   <si>
@@ -58,9 +31,6 @@
     <t>✔</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>BD antigua</t>
   </si>
   <si>
@@ -92,13 +62,43 @@
   </si>
   <si>
     <t>Generar relacion imagen flora</t>
+  </si>
+  <si>
+    <t>Complejo --ID:AutoIncremental</t>
+  </si>
+  <si>
+    <t>Cuenca -- ID:Autoincremental</t>
+  </si>
+  <si>
+    <t>Propietario -- ID:Autoincremental</t>
+  </si>
+  <si>
+    <t>Fauna -- ID:Autoincremental</t>
+  </si>
+  <si>
+    <t>Flora -- ID:Autoincremental</t>
+  </si>
+  <si>
+    <t>Fotográfica -- ID:Autoincremental</t>
+  </si>
+  <si>
+    <t>Imagen -- ID:Autoincremental</t>
+  </si>
+  <si>
+    <t>Presiones -- ID:Autoincremental</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Carga de cuenca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +136,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -258,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -286,6 +293,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,13 +603,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
@@ -607,204 +618,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
       <c r="C12" s="12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
       <c r="C13" s="12"/>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>

--- a/Cambios y Pruebas Hechas.xlsx
+++ b/Cambios y Pruebas Hechas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>Cambios</t>
   </si>
@@ -92,6 +92,27 @@
   </si>
   <si>
     <t>Carga de cuenca</t>
+  </si>
+  <si>
+    <t>Mi Rama</t>
+  </si>
+  <si>
+    <t>Mensaje de adbertencia campo obligatorio incompleto (Cuenca)</t>
+  </si>
+  <si>
+    <t>Mensaje de adbertencia campo obligatorio incompleto (Complejo)</t>
+  </si>
+  <si>
+    <t>Mensaje de adbertencia campo obligatorio incompleto (Persona)</t>
+  </si>
+  <si>
+    <t>Mensaje de adbertencia campo obligatorio incompleto (Presiones)</t>
+  </si>
+  <si>
+    <t>Mensaje de adbertencia campo obligatorio incompleto (Fauna)</t>
+  </si>
+  <si>
+    <t>Mensaje de adbertencia campo obligatorio incompleto (Flora)</t>
   </si>
 </sst>
 </file>
@@ -152,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -246,26 +267,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -292,10 +298,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +632,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -647,7 +661,7 @@
       <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -664,7 +678,7 @@
       <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -681,7 +695,7 @@
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -698,7 +712,7 @@
       <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -715,7 +729,7 @@
       <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="8"/>
@@ -733,7 +747,7 @@
       <c r="E7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -750,7 +764,7 @@
       <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -767,7 +781,7 @@
       <c r="E9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -781,7 +795,7 @@
       <c r="E10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="4"/>
@@ -796,7 +810,7 @@
       <c r="E11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="4"/>
@@ -812,7 +826,7 @@
       <c r="E12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -823,17 +837,127 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="12"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="14"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+    <row r="14" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="17"/>
+      <c r="D21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="17"/>
+      <c r="D22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="18"/>
+      <c r="D23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="17"/>
+      <c r="D24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="17"/>
+      <c r="D25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
